--- a/fuentes/contenidos/grado09/guion03/SolicitudGrafica_CS_09_03_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion03/SolicitudGrafica_CS_09_03_CO.xlsx
@@ -598,15 +598,9 @@
     <t xml:space="preserve">Fragmentación de Centroamerica </t>
   </si>
   <si>
-    <t>http://aulaplaneta.planetasaber.com/encyclopedia/default.asp?idpack=9&amp;idpil=0008TG01&amp;ruta=aulaplaneta&amp;DATA=liXdw0UWeeMehPpUzks61DfqpXb%2b3YLTbbj%2btkCHHwY%3d</t>
-  </si>
-  <si>
     <t>https://commons.wikimedia.org/wiki/File:San_Luis-terv.JPG?uselang=es</t>
   </si>
   <si>
-    <t>https://commons.wikimedia.org/wiki/File:Pancho_Villa_bandolier_crop.jpg</t>
-  </si>
-  <si>
     <t>http://commons.wikimedia.org/wiki/File:Emiliano_Zapata_-_LOC.jpg</t>
   </si>
   <si>
@@ -634,15 +628,9 @@
     <t>CS_09_03_CO</t>
   </si>
   <si>
-    <t>http://commons.wikimedia.org/wiki/File:Workerbananamassacred.png</t>
-  </si>
-  <si>
     <t>http://commons.wikimedia.org/wiki/File:JCM_1929.jpg</t>
   </si>
   <si>
-    <t>http://commons.wikimedia.org/wiki/File:Arevalopres.jpg</t>
-  </si>
-  <si>
     <t>http://commons.wikimedia.org/wiki/File:Peron_y_Eva_-_Acto_en_Plaza_de_Mayo_-17OCT1951.jpg</t>
   </si>
   <si>
@@ -665,6 +653,18 @@
   </si>
   <si>
     <t>América Latina en la primera mitad del siglo XX</t>
+  </si>
+  <si>
+    <t>http://aulaplaneta.planetasaber.com/encyclopedia/default.asp?idpack=9&amp;idpil=0008TG01&amp;ruta=aulaplaneta&amp;DATA=liXdw0Uhttp://aulaplaneta.planetasaber.com/encyclopedia/default.asp?idpack=9&amp;idpil=0008TG01&amp;ruta=aulaplaneta&amp;DATA=sZGVEy6LBrlXki0%2bUjW9rDfqpXb%2b3YLTbbj%2btkCHHwY%3d</t>
+  </si>
+  <si>
+    <t>http://commons.wikimedia.org/wiki/File:Pancho_Villa_bandolier_crop.jpg</t>
+  </si>
+  <si>
+    <t>http://commons.wikimedia.org/wiki/File:Eltiempo_19281210.jpg</t>
+  </si>
+  <si>
+    <t>http://www.taringa.net/posts/info/10494472/Guatemala-el-derrocamiento-de-Jacobo-Arbenz-Guzman-Youtube.html</t>
   </si>
 </sst>
 </file>
@@ -1586,6 +1586,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="51" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="51" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1681,12 +1687,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="51" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -2140,8 +2140,12 @@
           <cell r="E3" t="str">
             <v>110 x 110 px</v>
           </cell>
-          <cell r="F3"/>
-          <cell r="G3"/>
+          <cell r="F3">
+            <v>0</v>
+          </cell>
+          <cell r="G3">
+            <v>0</v>
+          </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
@@ -2162,7 +2166,9 @@
           <cell r="F4" t="str">
             <v>500 x 500 px</v>
           </cell>
-          <cell r="G4"/>
+          <cell r="G4">
+            <v>0</v>
+          </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
@@ -2183,7 +2189,9 @@
           <cell r="F5" t="str">
             <v>500 x 500 px</v>
           </cell>
-          <cell r="G5"/>
+          <cell r="G5">
+            <v>0</v>
+          </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
@@ -2227,7 +2235,9 @@
           <cell r="F7" t="str">
             <v>500 x 500 px</v>
           </cell>
-          <cell r="G7"/>
+          <cell r="G7">
+            <v>0</v>
+          </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
@@ -2248,7 +2258,9 @@
           <cell r="F8" t="str">
             <v>500 x 500 px</v>
           </cell>
-          <cell r="G8"/>
+          <cell r="G8">
+            <v>0</v>
+          </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
@@ -2269,7 +2281,9 @@
           <cell r="F9" t="str">
             <v>500 x 500 px</v>
           </cell>
-          <cell r="G9"/>
+          <cell r="G9">
+            <v>0</v>
+          </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
@@ -2287,8 +2301,12 @@
           <cell r="E10" t="str">
             <v>273 x 51 px</v>
           </cell>
-          <cell r="F10"/>
-          <cell r="G10"/>
+          <cell r="F10">
+            <v>0</v>
+          </cell>
+          <cell r="G10">
+            <v>0</v>
+          </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
@@ -2309,7 +2327,9 @@
           <cell r="F11" t="str">
             <v>500 x 500 px</v>
           </cell>
-          <cell r="G11"/>
+          <cell r="G11">
+            <v>0</v>
+          </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
@@ -2330,7 +2350,9 @@
           <cell r="F12" t="str">
             <v>500 x 500 px</v>
           </cell>
-          <cell r="G12"/>
+          <cell r="G12">
+            <v>0</v>
+          </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
@@ -2345,11 +2367,15 @@
           <cell r="D13" t="str">
             <v>JPG</v>
           </cell>
-          <cell r="E13"/>
+          <cell r="E13">
+            <v>0</v>
+          </cell>
           <cell r="F13" t="str">
             <v>800 x 460 px</v>
           </cell>
-          <cell r="G13"/>
+          <cell r="G13">
+            <v>0</v>
+          </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
@@ -2364,11 +2390,15 @@
           <cell r="D14" t="str">
             <v>PNG</v>
           </cell>
-          <cell r="E14"/>
+          <cell r="E14">
+            <v>0</v>
+          </cell>
           <cell r="F14" t="str">
             <v>613 × 180 px</v>
           </cell>
-          <cell r="G14"/>
+          <cell r="G14">
+            <v>0</v>
+          </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
@@ -2386,14 +2416,20 @@
           <cell r="E15" t="str">
             <v>950 x 608 px</v>
           </cell>
-          <cell r="F15"/>
-          <cell r="G15"/>
+          <cell r="F15">
+            <v>0</v>
+          </cell>
+          <cell r="G15">
+            <v>0</v>
+          </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
             <v>Cuaderno de estudio</v>
           </cell>
-          <cell r="B16"/>
+          <cell r="B16">
+            <v>0</v>
+          </cell>
           <cell r="C16" t="str">
             <v>WEB, no rebasar los 100K</v>
           </cell>
@@ -2406,13 +2442,17 @@
           <cell r="F16" t="str">
             <v>800 x 600 px</v>
           </cell>
-          <cell r="G16"/>
+          <cell r="G16">
+            <v>0</v>
+          </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
             <v>Iconos del guión</v>
           </cell>
-          <cell r="B17"/>
+          <cell r="B17">
+            <v>0</v>
+          </cell>
           <cell r="C17" t="str">
             <v>WEB</v>
           </cell>
@@ -2427,7 +2467,9 @@
             <v>med =
 378 x 268 px</v>
           </cell>
-          <cell r="G17"/>
+          <cell r="G17">
+            <v>0</v>
+          </cell>
         </row>
       </sheetData>
     </sheetDataSet>
@@ -2463,8 +2505,12 @@
           <cell r="E3" t="str">
             <v>110 x 110 px</v>
           </cell>
-          <cell r="F3"/>
-          <cell r="G3"/>
+          <cell r="F3">
+            <v>0</v>
+          </cell>
+          <cell r="G3">
+            <v>0</v>
+          </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
@@ -2485,7 +2531,9 @@
           <cell r="F4" t="str">
             <v>500 x 500 px</v>
           </cell>
-          <cell r="G4"/>
+          <cell r="G4">
+            <v>0</v>
+          </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
@@ -2506,7 +2554,9 @@
           <cell r="F5" t="str">
             <v>500 x 500 px</v>
           </cell>
-          <cell r="G5"/>
+          <cell r="G5">
+            <v>0</v>
+          </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
@@ -2550,7 +2600,9 @@
           <cell r="F7" t="str">
             <v>500 x 500 px</v>
           </cell>
-          <cell r="G7"/>
+          <cell r="G7">
+            <v>0</v>
+          </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
@@ -2571,7 +2623,9 @@
           <cell r="F8" t="str">
             <v>500 x 500 px</v>
           </cell>
-          <cell r="G8"/>
+          <cell r="G8">
+            <v>0</v>
+          </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
@@ -2592,7 +2646,9 @@
           <cell r="F9" t="str">
             <v>500 x 500 px</v>
           </cell>
-          <cell r="G9"/>
+          <cell r="G9">
+            <v>0</v>
+          </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
@@ -2610,8 +2666,12 @@
           <cell r="E10" t="str">
             <v>273 x 51 px</v>
           </cell>
-          <cell r="F10"/>
-          <cell r="G10"/>
+          <cell r="F10">
+            <v>0</v>
+          </cell>
+          <cell r="G10">
+            <v>0</v>
+          </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
@@ -2632,7 +2692,9 @@
           <cell r="F11" t="str">
             <v>500 x 500 px</v>
           </cell>
-          <cell r="G11"/>
+          <cell r="G11">
+            <v>0</v>
+          </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
@@ -2653,7 +2715,9 @@
           <cell r="F12" t="str">
             <v>500 x 500 px</v>
           </cell>
-          <cell r="G12"/>
+          <cell r="G12">
+            <v>0</v>
+          </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
@@ -2668,11 +2732,15 @@
           <cell r="D13" t="str">
             <v>JPG</v>
           </cell>
-          <cell r="E13"/>
+          <cell r="E13">
+            <v>0</v>
+          </cell>
           <cell r="F13" t="str">
             <v>800 x 460 px</v>
           </cell>
-          <cell r="G13"/>
+          <cell r="G13">
+            <v>0</v>
+          </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
@@ -2687,11 +2755,15 @@
           <cell r="D14" t="str">
             <v>PNG</v>
           </cell>
-          <cell r="E14"/>
+          <cell r="E14">
+            <v>0</v>
+          </cell>
           <cell r="F14" t="str">
             <v>613 × 180 px</v>
           </cell>
-          <cell r="G14"/>
+          <cell r="G14">
+            <v>0</v>
+          </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
@@ -2709,14 +2781,20 @@
           <cell r="E15" t="str">
             <v>950 x 608 px</v>
           </cell>
-          <cell r="F15"/>
-          <cell r="G15"/>
+          <cell r="F15">
+            <v>0</v>
+          </cell>
+          <cell r="G15">
+            <v>0</v>
+          </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
             <v>Cuaderno de estudio</v>
           </cell>
-          <cell r="B16"/>
+          <cell r="B16">
+            <v>0</v>
+          </cell>
           <cell r="C16" t="str">
             <v>WEB, no rebasar los 100K</v>
           </cell>
@@ -2729,13 +2807,17 @@
           <cell r="F16" t="str">
             <v>800 x 600 px</v>
           </cell>
-          <cell r="G16"/>
+          <cell r="G16">
+            <v>0</v>
+          </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
             <v>Iconos del guión</v>
           </cell>
-          <cell r="B17"/>
+          <cell r="B17">
+            <v>0</v>
+          </cell>
           <cell r="C17" t="str">
             <v>WEB</v>
           </cell>
@@ -2750,7 +2832,9 @@
             <v>med =
 378 x 268 px</v>
           </cell>
-          <cell r="G17"/>
+          <cell r="G17">
+            <v>0</v>
+          </cell>
         </row>
       </sheetData>
     </sheetDataSet>
@@ -3094,8 +3178,12 @@
           <cell r="E3" t="str">
             <v>110 x 110 px</v>
           </cell>
-          <cell r="F3"/>
-          <cell r="G3"/>
+          <cell r="F3">
+            <v>0</v>
+          </cell>
+          <cell r="G3">
+            <v>0</v>
+          </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
@@ -3116,7 +3204,9 @@
           <cell r="F4" t="str">
             <v>500 x 500 px</v>
           </cell>
-          <cell r="G4"/>
+          <cell r="G4">
+            <v>0</v>
+          </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
@@ -3137,7 +3227,9 @@
           <cell r="F5" t="str">
             <v>500 x 500 px</v>
           </cell>
-          <cell r="G5"/>
+          <cell r="G5">
+            <v>0</v>
+          </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
@@ -3181,7 +3273,9 @@
           <cell r="F7" t="str">
             <v>500 x 500 px</v>
           </cell>
-          <cell r="G7"/>
+          <cell r="G7">
+            <v>0</v>
+          </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
@@ -3202,7 +3296,9 @@
           <cell r="F8" t="str">
             <v>500 x 500 px</v>
           </cell>
-          <cell r="G8"/>
+          <cell r="G8">
+            <v>0</v>
+          </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
@@ -3223,7 +3319,9 @@
           <cell r="F9" t="str">
             <v>500 x 500 px</v>
           </cell>
-          <cell r="G9"/>
+          <cell r="G9">
+            <v>0</v>
+          </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
@@ -3241,8 +3339,12 @@
           <cell r="E10" t="str">
             <v>273 x 51 px</v>
           </cell>
-          <cell r="F10"/>
-          <cell r="G10"/>
+          <cell r="F10">
+            <v>0</v>
+          </cell>
+          <cell r="G10">
+            <v>0</v>
+          </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
@@ -3263,7 +3365,9 @@
           <cell r="F11" t="str">
             <v>500 x 500 px</v>
           </cell>
-          <cell r="G11"/>
+          <cell r="G11">
+            <v>0</v>
+          </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
@@ -3284,7 +3388,9 @@
           <cell r="F12" t="str">
             <v>500 x 500 px</v>
           </cell>
-          <cell r="G12"/>
+          <cell r="G12">
+            <v>0</v>
+          </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
@@ -3299,11 +3405,15 @@
           <cell r="D13" t="str">
             <v>JPG</v>
           </cell>
-          <cell r="E13"/>
+          <cell r="E13">
+            <v>0</v>
+          </cell>
           <cell r="F13" t="str">
             <v>800 x 460 px</v>
           </cell>
-          <cell r="G13"/>
+          <cell r="G13">
+            <v>0</v>
+          </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
@@ -3318,11 +3428,15 @@
           <cell r="D14" t="str">
             <v>PNG</v>
           </cell>
-          <cell r="E14"/>
+          <cell r="E14">
+            <v>0</v>
+          </cell>
           <cell r="F14" t="str">
             <v>613 × 180 px</v>
           </cell>
-          <cell r="G14"/>
+          <cell r="G14">
+            <v>0</v>
+          </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
@@ -3340,14 +3454,20 @@
           <cell r="E15" t="str">
             <v>950 x 608 px</v>
           </cell>
-          <cell r="F15"/>
-          <cell r="G15"/>
+          <cell r="F15">
+            <v>0</v>
+          </cell>
+          <cell r="G15">
+            <v>0</v>
+          </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
             <v>Cuaderno de estudio</v>
           </cell>
-          <cell r="B16"/>
+          <cell r="B16">
+            <v>0</v>
+          </cell>
           <cell r="C16" t="str">
             <v>WEB, no rebasar los 100K</v>
           </cell>
@@ -3360,13 +3480,17 @@
           <cell r="F16" t="str">
             <v>800 x 600 px</v>
           </cell>
-          <cell r="G16"/>
+          <cell r="G16">
+            <v>0</v>
+          </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
             <v>Iconos del guión</v>
           </cell>
-          <cell r="B17"/>
+          <cell r="B17">
+            <v>0</v>
+          </cell>
           <cell r="C17" t="str">
             <v>WEB</v>
           </cell>
@@ -3381,7 +3505,9 @@
             <v>med =
 378 x 268 px</v>
           </cell>
-          <cell r="G17"/>
+          <cell r="G17">
+            <v>0</v>
+          </cell>
         </row>
       </sheetData>
     </sheetDataSet>
@@ -5546,7 +5672,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4:D4"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -5584,14 +5710,14 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="89"/>
-      <c r="F2" s="81" t="s">
+      <c r="D2" s="91"/>
+      <c r="F2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="82"/>
+      <c r="G2" s="84"/>
       <c r="H2" s="50"/>
       <c r="I2" s="50"/>
       <c r="J2" s="16"/>
@@ -5601,14 +5727,14 @@
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="90">
+      <c r="C3" s="92">
         <v>9</v>
       </c>
-      <c r="D3" s="91"/>
-      <c r="F3" s="83">
+      <c r="D3" s="93"/>
+      <c r="F3" s="85">
         <v>42098</v>
       </c>
-      <c r="G3" s="84"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="50"/>
       <c r="I3" s="50"/>
       <c r="J3" s="16"/>
@@ -5618,10 +5744,10 @@
       <c r="B4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="90" t="s">
-        <v>194</v>
-      </c>
-      <c r="D4" s="91"/>
+      <c r="C4" s="92" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="93"/>
       <c r="E4" s="5"/>
       <c r="F4" s="49" t="s">
         <v>56</v>
@@ -5639,10 +5765,10 @@
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="92" t="s">
+      <c r="C5" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="93"/>
+      <c r="D5" s="95"/>
       <c r="E5" s="5"/>
       <c r="F5" s="47" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -5675,7 +5801,7 @@
         <v>41</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D7" s="33" t="s">
         <v>40</v>
@@ -5693,12 +5819,12 @@
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="85" t="s">
+      <c r="F8" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="87"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="89"/>
       <c r="J8" s="18"/>
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
@@ -5742,13 +5868,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="12" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="12" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="str">
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),"IMG01","")</f>
         <v>IMG01</v>
       </c>
       <c r="B10" s="73" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="C10" s="27" t="str">
         <f>IF(OR(B10&lt;&gt;Ayuda!A5,J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -5787,7 +5913,7 @@
         <v>IMG02</v>
       </c>
       <c r="B11" s="80" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C11" s="27" t="str">
         <f>IF(OR(B11&lt;&gt;Ayuda!A6,J11&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -5825,8 +5951,8 @@
         <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),"IMG03","")</f>
         <v>IMG03</v>
       </c>
-      <c r="B12" s="112" t="s">
-        <v>174</v>
+      <c r="B12" s="81" t="s">
+        <v>192</v>
       </c>
       <c r="C12" s="27" t="str">
         <f>IF(OR(B12&lt;&gt;Ayuda!A7,J12&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -5836,7 +5962,7 @@
         <v>150</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F12" s="14" t="str">
         <f t="shared" si="1"/>
@@ -5865,7 +5991,7 @@
         <v>IMG04</v>
       </c>
       <c r="B13" s="80" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C13" s="27" t="str">
         <f>IF(OR(B13&lt;&gt;Ayuda!A8,J13&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -5875,7 +6001,7 @@
         <v>150</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F13" s="14" t="str">
         <f t="shared" si="1"/>
@@ -5898,13 +6024,13 @@
       </c>
       <c r="K13" s="19"/>
     </row>
-    <row r="14" spans="1:16" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="str">
         <f>IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),"IMG05","")</f>
         <v>IMG05</v>
       </c>
       <c r="B14" s="76" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C14" s="27" t="str">
         <f>IF(OR(B14&lt;&gt;Ayuda!A9,J14&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -5937,13 +6063,13 @@
       </c>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="1:16" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="75" t="str">
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),"IMG06","")</f>
         <v>IMG06</v>
       </c>
       <c r="B15" s="76" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C15" s="27" t="str">
         <f>IF(OR(B15&lt;&gt;Ayuda!A10,J15&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -5982,7 +6108,7 @@
         <v>IMG07</v>
       </c>
       <c r="B16" s="80" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C16" s="27" t="str">
         <f>IF(OR(B16&lt;&gt;Ayuda!A11,J16&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -5992,7 +6118,7 @@
         <v>150</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F16" s="14" t="str">
         <f t="shared" si="1"/>
@@ -6020,8 +6146,8 @@
         <f>IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),"IMG08","")</f>
         <v>IMG08</v>
       </c>
-      <c r="B17" s="112" t="s">
-        <v>179</v>
+      <c r="B17" s="81" t="s">
+        <v>177</v>
       </c>
       <c r="C17" s="27" t="str">
         <f>IF(OR(B17&lt;&gt;Ayuda!A12,J17&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -6060,7 +6186,7 @@
         <v>IMG09</v>
       </c>
       <c r="B18" s="80" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C18" s="27" t="str">
         <f>IF(OR(B18&lt;&gt;Ayuda!A13,J18&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -6093,13 +6219,13 @@
       </c>
       <c r="K18" s="19"/>
     </row>
-    <row r="19" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="str">
         <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),"IMG10","")</f>
         <v>IMG10</v>
       </c>
-      <c r="B19" s="113" t="s">
-        <v>181</v>
+      <c r="B19" s="82" t="s">
+        <v>179</v>
       </c>
       <c r="C19" s="27" t="str">
         <f>IF(OR(B19&lt;&gt;Ayuda!A14,J19&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -6109,7 +6235,7 @@
         <v>150</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F19" s="14" t="str">
         <f t="shared" si="1"/>
@@ -6132,13 +6258,13 @@
       </c>
       <c r="K19" s="19"/>
     </row>
-    <row r="20" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="str">
         <f>IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),"IMG11","")</f>
         <v>IMG11</v>
       </c>
       <c r="B20" s="76" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C20" s="27" t="str">
         <f>IF(OR(B20&lt;&gt;Ayuda!A15,J20&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -6177,7 +6303,7 @@
         <v>IMG12</v>
       </c>
       <c r="B21" s="76" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C21" s="27" t="str">
         <f>IF(OR(B21&lt;&gt;Ayuda!A16,J21&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -6216,7 +6342,7 @@
         <v>IMG13</v>
       </c>
       <c r="B22" s="78" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C22" s="27" t="str">
         <f>IF(OR(B22&lt;&gt;Ayuda!A17,J22&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -6249,13 +6375,13 @@
       </c>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A23" s="75" t="str">
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),"IMG14","")</f>
         <v>IMG14</v>
       </c>
       <c r="B23" s="76" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="C23" s="27" t="str">
         <f>IF(OR(B23&lt;&gt;Ayuda!A18,J23&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -6294,7 +6420,7 @@
         <v>IMG15</v>
       </c>
       <c r="B24" s="73" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C24" s="27" t="str">
         <f>IF(OR(B24&lt;&gt;Ayuda!A19,J24&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -6333,7 +6459,7 @@
         <v>IMG16</v>
       </c>
       <c r="B25" s="76" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C25" s="27" t="str">
         <f>IF(OR(B25&lt;&gt;Ayuda!A20,J25&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -6372,7 +6498,7 @@
         <v>IMG17</v>
       </c>
       <c r="B26" s="76" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C26" s="27" t="str">
         <f>IF(OR(B26&lt;&gt;Ayuda!A21,J26&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -6411,7 +6537,7 @@
         <v>IMG18</v>
       </c>
       <c r="B27" s="76" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C27" s="27" t="str">
         <f>IF(OR(B27&lt;&gt;Ayuda!A22,J27&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -6450,7 +6576,7 @@
         <v>IMG19</v>
       </c>
       <c r="B28" s="76" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C28" s="27" t="str">
         <f>IF(OR(B28&lt;&gt;Ayuda!A23,J28&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -6489,7 +6615,7 @@
         <v>IMG20</v>
       </c>
       <c r="B29" s="76" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C29" s="27" t="str">
         <f>IF(OR(B29&lt;&gt;Ayuda!A22,J29&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -6528,7 +6654,7 @@
         <v>IMG21</v>
       </c>
       <c r="B30" s="80" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C30" s="27" t="str">
         <f>IF(OR(B30&lt;&gt;Ayuda!A23,J30&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -6538,7 +6664,7 @@
         <v>150</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F30" s="14" t="str">
         <f t="shared" si="2"/>
@@ -8597,9 +8723,19 @@
     <hyperlink ref="B28" r:id="rId8"/>
     <hyperlink ref="B30" r:id="rId9"/>
     <hyperlink ref="B29" r:id="rId10"/>
+    <hyperlink ref="B10"/>
+    <hyperlink ref="B11" r:id="rId11"/>
+    <hyperlink ref="B12" r:id="rId12"/>
+    <hyperlink ref="B13" r:id="rId13"/>
+    <hyperlink ref="B14" r:id="rId14"/>
+    <hyperlink ref="B15" r:id="rId15"/>
+    <hyperlink ref="B16" r:id="rId16"/>
+    <hyperlink ref="B17" r:id="rId17"/>
+    <hyperlink ref="B19" r:id="rId18"/>
+    <hyperlink ref="B20" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId11"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId20"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -8629,25 +8765,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="98"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="100"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="41"/>
-      <c r="C2" s="99" t="s">
+      <c r="C2" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="100"/>
-      <c r="E2" s="101"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103"/>
       <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
@@ -8655,11 +8791,11 @@
         <v>44</v>
       </c>
       <c r="B3" s="41"/>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="106"/>
-      <c r="E3" s="107"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="109"/>
       <c r="F3" s="42"/>
       <c r="H3" s="32" t="s">
         <v>19</v>
@@ -8710,11 +8846,11 @@
       <c r="C5" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="108" t="str">
+      <c r="D5" s="110" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="109"/>
+      <c r="E5" s="111"/>
       <c r="F5" s="42"/>
       <c r="H5" s="32" t="s">
         <v>23</v>
@@ -8759,12 +8895,12 @@
       <c r="C7" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="94" t="str">
+      <c r="D7" s="96" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="94"/>
-      <c r="F7" s="95"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="97"/>
       <c r="H7" s="32" t="s">
         <v>25</v>
       </c>
@@ -8858,14 +8994,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="97"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="98"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="100"/>
       <c r="I13" s="32" t="s">
         <v>34</v>
       </c>
@@ -8898,12 +9034,12 @@
         <v>47</v>
       </c>
       <c r="B15" s="41"/>
-      <c r="C15" s="99" t="s">
+      <c r="C15" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="101"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="103"/>
       <c r="J15" s="32">
         <v>12</v>
       </c>
@@ -8943,12 +9079,12 @@
       <c r="C17" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="102" t="str">
+      <c r="D17" s="104" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="103"/>
-      <c r="F17" s="104"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="106"/>
       <c r="J17" s="32">
         <v>14</v>
       </c>
@@ -8964,12 +9100,12 @@
       <c r="C18" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="94" t="str">
+      <c r="D18" s="96" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="94"/>
-      <c r="F18" s="95"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="97"/>
       <c r="J18" s="32">
         <v>15</v>
       </c>
@@ -9360,41 +9496,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="112" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="110" t="s">
+      <c r="C1" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="110" t="s">
+      <c r="D1" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="110" t="s">
+      <c r="E1" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="110" t="s">
+      <c r="F1" s="112" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="110" t="s">
+      <c r="G1" s="112" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="111" t="s">
+      <c r="H1" s="113" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
       <c r="H2" s="51" t="s">
         <v>66</v>
       </c>
